--- a/Arquivo de estudantes/Cadastro de estudantes/Controle de presencas.xlsx
+++ b/Arquivo de estudantes/Cadastro de estudantes/Controle de presencas.xlsx
@@ -121,9 +121,6 @@
     <t>Ancha</t>
   </si>
   <si>
-    <t>Dalita</t>
-  </si>
-  <si>
     <t>Enia</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Osvaldo Bila</t>
+  </si>
+  <si>
+    <t>Amelia</t>
   </si>
 </sst>
 </file>
@@ -538,51 +538,51 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -874,8 +874,8 @@
   <dimension ref="B1:AM53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,95 +932,95 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="2:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="30" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="35"/>
+      <c r="S4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="32"/>
-      <c r="AF4" s="39" t="s">
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="35"/>
+      <c r="AF4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="35"/>
     </row>
     <row r="5" spans="2:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-      <c r="S5" s="33" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="35"/>
+      <c r="S5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="32"/>
-      <c r="AF5" s="40" t="s">
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="35"/>
+      <c r="AF5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="32"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="35"/>
       <c r="AM5" s="26" t="s">
         <v>6</v>
       </c>
@@ -1056,121 +1056,121 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="41" t="s">
+      <c r="AF6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="32"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="35"/>
       <c r="AM6" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
-      <c r="S7" s="30" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="35"/>
+      <c r="S7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="30" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="30" t="s">
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="32"/>
-      <c r="AF7" s="40" t="s">
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="35"/>
+      <c r="AF7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="32"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="35"/>
       <c r="AM7" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:39" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="33" t="s">
+      <c r="S8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33" t="s">
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="33">
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="42">
         <v>2025</v>
       </c>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="32"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="35"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="41" t="s">
+      <c r="AF8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="32"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="35"/>
       <c r="AM8" s="26" t="s">
         <v>17</v>
       </c>
@@ -1191,57 +1191,57 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="2:39" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="44" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
     </row>
     <row r="11" spans="2:39" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="11">
         <v>1</v>
       </c>
@@ -1379,10 +1379,10 @@
       </c>
     </row>
     <row r="12" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="9"/>
       <c r="E12" s="13" t="s">
         <v>6</v>
@@ -1450,9 +1450,9 @@
     </row>
     <row r="13" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="C13" s="35"/>
       <c r="D13" s="12"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -1507,10 +1507,10 @@
       </c>
     </row>
     <row r="14" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="32"/>
+      <c r="B14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="35"/>
       <c r="D14" s="9"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -1566,9 +1566,9 @@
     </row>
     <row r="15" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="C15" s="35"/>
       <c r="D15" s="12"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
@@ -1623,10 +1623,10 @@
       </c>
     </row>
     <row r="16" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="32"/>
+      <c r="B16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="35"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
@@ -1682,9 +1682,9 @@
     </row>
     <row r="17" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="32"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="35"/>
       <c r="D17" s="12"/>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
@@ -1739,10 +1739,10 @@
       </c>
     </row>
     <row r="18" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="35"/>
       <c r="D18" s="9"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="19" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
-      <c r="C19" s="32"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="12"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="20" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="9"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="21" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="34"/>
-      <c r="C21" s="32"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="12"/>
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
@@ -1949,8 +1949,8 @@
       </c>
     </row>
     <row r="22" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="23" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="12"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
@@ -2053,8 +2053,8 @@
       </c>
     </row>
     <row r="24" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="25" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="34"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="12"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
@@ -2157,8 +2157,8 @@
       </c>
     </row>
     <row r="26" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="27" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="34"/>
-      <c r="C27" s="32"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="12"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
@@ -2261,8 +2261,8 @@
       </c>
     </row>
     <row r="28" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="29" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="12"/>
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
@@ -2365,8 +2365,8 @@
       </c>
     </row>
     <row r="30" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="31" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="34"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="12"/>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
@@ -2469,8 +2469,8 @@
       </c>
     </row>
     <row r="32" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="9"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="33" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="34"/>
-      <c r="C33" s="32"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="12"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
@@ -2573,8 +2573,8 @@
       </c>
     </row>
     <row r="34" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="9"/>
       <c r="E34" s="13"/>
       <c r="F34" s="14"/>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="35" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="34"/>
-      <c r="C35" s="32"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="12"/>
       <c r="E35" s="14"/>
       <c r="F35" s="15"/>
@@ -2677,8 +2677,8 @@
       </c>
     </row>
     <row r="36" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="9"/>
       <c r="E36" s="13"/>
       <c r="F36" s="14"/>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="37" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="34"/>
-      <c r="C37" s="32"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="12"/>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
@@ -2781,8 +2781,8 @@
       </c>
     </row>
     <row r="38" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="9"/>
       <c r="E38" s="13"/>
       <c r="F38" s="14"/>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="39" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="34"/>
-      <c r="C39" s="32"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="12"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
@@ -2885,8 +2885,8 @@
       </c>
     </row>
     <row r="40" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="9"/>
       <c r="E40" s="13"/>
       <c r="F40" s="14"/>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="41" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="34"/>
-      <c r="C41" s="32"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="12"/>
       <c r="E41" s="14"/>
       <c r="F41" s="15"/>
@@ -2989,8 +2989,8 @@
       </c>
     </row>
     <row r="42" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="9"/>
       <c r="E42" s="13"/>
       <c r="F42" s="14"/>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="43" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="34"/>
-      <c r="C43" s="32"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="12"/>
       <c r="E43" s="14"/>
       <c r="F43" s="15"/>
@@ -3093,8 +3093,8 @@
       </c>
     </row>
     <row r="44" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="9"/>
       <c r="E44" s="13"/>
       <c r="F44" s="14"/>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="45" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="34"/>
-      <c r="C45" s="32"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="12"/>
       <c r="E45" s="14"/>
       <c r="F45" s="15"/>
@@ -3197,8 +3197,8 @@
       </c>
     </row>
     <row r="46" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="9"/>
       <c r="E46" s="13"/>
       <c r="F46" s="14"/>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="47" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34"/>
-      <c r="C47" s="32"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="12"/>
       <c r="E47" s="14"/>
       <c r="F47" s="15"/>
@@ -3301,8 +3301,8 @@
       </c>
     </row>
     <row r="48" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="9"/>
       <c r="E48" s="13"/>
       <c r="F48" s="14"/>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="49" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="34"/>
-      <c r="C49" s="32"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="12"/>
       <c r="E49" s="14"/>
       <c r="F49" s="15"/>
@@ -3405,8 +3405,8 @@
       </c>
     </row>
     <row r="50" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
-      <c r="C50" s="32"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="9"/>
       <c r="E50" s="13"/>
       <c r="F50" s="14"/>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="51" spans="2:39" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="34"/>
-      <c r="C51" s="32"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="12"/>
       <c r="E51" s="14"/>
       <c r="F51" s="15"/>
@@ -3510,48 +3510,98 @@
     </row>
     <row r="52" spans="2:39" ht="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="2:39" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="49"/>
-      <c r="AD53" s="50"/>
-      <c r="AE53" s="50"/>
-      <c r="AF53" s="50"/>
-      <c r="AG53" s="50"/>
-      <c r="AH53" s="50"/>
-      <c r="AI53" s="50"/>
-      <c r="AJ53" s="50"/>
-      <c r="AK53" s="50"/>
-      <c r="AL53" s="50"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="33"/>
+      <c r="AK53" s="33"/>
+      <c r="AL53" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="E10:AI10"/>
+    <mergeCell ref="S4:AD4"/>
+    <mergeCell ref="S5:AD5"/>
+    <mergeCell ref="AF4:AM4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="AF7:AL7"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="AJ10:AM10"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B53:AL53"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B12:C12"/>
@@ -3568,56 +3618,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="AJ10:AM10"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="E10:AI10"/>
-    <mergeCell ref="S4:AD4"/>
-    <mergeCell ref="S5:AD5"/>
-    <mergeCell ref="AF4:AM4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="AF7:AL7"/>
-    <mergeCell ref="AF8:AL8"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="W8:AA8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E12:AI51">
